--- a/data/trans_orig/P14B34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Estudios-trans_orig.xlsx
@@ -1041,19 +1041,19 @@
         <v>33648</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23622</v>
+        <v>23763</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47712</v>
+        <v>47564</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03460172832674929</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02429100759278987</v>
+        <v>0.02443585767426444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04906335972697167</v>
+        <v>0.04891114742344448</v>
       </c>
     </row>
     <row r="5">
@@ -1070,19 +1070,19 @@
         <v>938803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>924739</v>
+        <v>924887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>948829</v>
+        <v>948688</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9653982716732508</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9509366402730283</v>
+        <v>0.9510888525765555</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9757089924072101</v>
+        <v>0.9755641423257355</v>
       </c>
     </row>
     <row r="6">
@@ -1132,19 +1132,19 @@
         <v>20704</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12841</v>
+        <v>13607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31427</v>
+        <v>32032</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01054768027469864</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006541683555970314</v>
+        <v>0.006931991704894829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01601038548244504</v>
+        <v>0.01631852762843098</v>
       </c>
     </row>
     <row r="8">
@@ -1161,19 +1161,19 @@
         <v>1942203</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1931480</v>
+        <v>1930875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1950066</v>
+        <v>1949300</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9894523197253013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.983989614517555</v>
+        <v>0.983681472371569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9934583164440297</v>
+        <v>0.9930680082951052</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11702</v>
+        <v>13502</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006570678645827535</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02432026204488699</v>
+        <v>0.02805923936559832</v>
       </c>
     </row>
     <row r="11">
@@ -1252,7 +1252,7 @@
         <v>478019</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>469479</v>
+        <v>467679</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>481181</v>
@@ -1261,7 +1261,7 @@
         <v>0.9934293213541725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9756797379551133</v>
+        <v>0.9719407606344027</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1314,19 +1314,19 @@
         <v>57514</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43920</v>
+        <v>43516</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74824</v>
+        <v>76073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0168340802825994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01285522930615343</v>
+        <v>0.01273673045783022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02190063727770171</v>
+        <v>0.02226599744923535</v>
       </c>
     </row>
     <row r="14">
@@ -1343,19 +1343,19 @@
         <v>3359026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3341716</v>
+        <v>3340467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3372620</v>
+        <v>3373024</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9831659197174006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9780993627222982</v>
+        <v>0.9777340025507645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9871447706938465</v>
+        <v>0.9872632695421697</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>19926</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13004</v>
+        <v>13175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29020</v>
+        <v>29937</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02641442791001832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01723879771874721</v>
+        <v>0.01746569770610273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03846988478650747</v>
+        <v>0.03968581267329693</v>
       </c>
     </row>
     <row r="5">
@@ -1551,19 +1551,19 @@
         <v>734421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>725327</v>
+        <v>724410</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>741343</v>
+        <v>741172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9735855720899816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9615301152134925</v>
+        <v>0.9603141873267029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9827612022812526</v>
+        <v>0.9825343022938973</v>
       </c>
     </row>
     <row r="6">
@@ -1613,19 +1613,19 @@
         <v>15317</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8457</v>
+        <v>8927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25542</v>
+        <v>25572</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007376812245071076</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004073125355069132</v>
+        <v>0.00429947923015934</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01230142391399428</v>
+        <v>0.01231563972064114</v>
       </c>
     </row>
     <row r="8">
@@ -1642,19 +1642,19 @@
         <v>2061068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2050843</v>
+        <v>2050813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2067928</v>
+        <v>2067458</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.992623187754929</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9876985760860058</v>
+        <v>0.9876843602793589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9959268746449309</v>
+        <v>0.9957005207698407</v>
       </c>
     </row>
     <row r="9">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9403</v>
+        <v>9232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004554735652665154</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01719432769109048</v>
+        <v>0.01688085024200793</v>
       </c>
     </row>
     <row r="11">
@@ -1733,7 +1733,7 @@
         <v>544395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>537483</v>
+        <v>537654</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -1742,7 +1742,7 @@
         <v>0.9954452643473348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9828056723089095</v>
+        <v>0.9831191497579919</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1795,19 +1795,19 @@
         <v>37734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26193</v>
+        <v>27228</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51655</v>
+        <v>51672</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01117167883061542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007754889563747468</v>
+        <v>0.00806118690760978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01529320174828404</v>
+        <v>0.01529839779301349</v>
       </c>
     </row>
     <row r="14">
@@ -1824,19 +1824,19 @@
         <v>3339884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3325963</v>
+        <v>3325946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3351425</v>
+        <v>3350390</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9888283211693846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.984706798251716</v>
+        <v>0.9847016022069873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922451104362529</v>
+        <v>0.9919388130923903</v>
       </c>
     </row>
     <row r="15">
@@ -2003,19 +2003,19 @@
         <v>18995</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12997</v>
+        <v>13132</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26811</v>
+        <v>26137</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03303159846445052</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02260057086761679</v>
+        <v>0.02283563690488234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04662258934190605</v>
+        <v>0.04544960517763785</v>
       </c>
     </row>
     <row r="5">
@@ -2032,19 +2032,19 @@
         <v>556074</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>548258</v>
+        <v>548932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>562072</v>
+        <v>561937</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9669684015355496</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.953377410658094</v>
+        <v>0.9545503948223621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9773994291323834</v>
+        <v>0.9771643630951176</v>
       </c>
     </row>
     <row r="6">
@@ -2094,19 +2094,19 @@
         <v>12419</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7329</v>
+        <v>7185</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19982</v>
+        <v>19742</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.005598084623398598</v>
+        <v>0.005598084623398599</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003303597054936433</v>
+        <v>0.003238513655574573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009006898260850636</v>
+        <v>0.008898630824717785</v>
       </c>
     </row>
     <row r="8">
@@ -2123,19 +2123,19 @@
         <v>2206085</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2198522</v>
+        <v>2198762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2211175</v>
+        <v>2211319</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9944019153766012</v>
+        <v>0.9944019153766014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9909931017391495</v>
+        <v>0.9911013691752827</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966964029450637</v>
+        <v>0.9967614863444254</v>
       </c>
     </row>
     <row r="9">
@@ -2185,19 +2185,19 @@
         <v>4509</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1672</v>
+        <v>1344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11372</v>
+        <v>10383</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006388980240635005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002368816619891801</v>
+        <v>0.001904199682129679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01611301156511046</v>
+        <v>0.01471265747380655</v>
       </c>
     </row>
     <row r="11">
@@ -2214,19 +2214,19 @@
         <v>701231</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>694368</v>
+        <v>695357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704068</v>
+        <v>704396</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9936110197593651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9838869884348896</v>
+        <v>0.9852873425261937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9976311833801083</v>
+        <v>0.9980958003178704</v>
       </c>
     </row>
     <row r="12">
@@ -2276,19 +2276,19 @@
         <v>35924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25558</v>
+        <v>27579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46356</v>
+        <v>46913</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01026595030387039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007303709221923789</v>
+        <v>0.007881336529321235</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01324724251574133</v>
+        <v>0.01340634618220457</v>
       </c>
     </row>
     <row r="14">
@@ -2305,19 +2305,19 @@
         <v>3463389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3452957</v>
+        <v>3452400</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3473755</v>
+        <v>3471734</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9897340496961297</v>
+        <v>0.9897340496961295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9867527574842587</v>
+        <v>0.9865936538177955</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9926962907780762</v>
+        <v>0.9921186634706788</v>
       </c>
     </row>
     <row r="15">
